--- a/docs/PT1/PT1_07.08.24_output.xlsx
+++ b/docs/PT1/PT1_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1071 +505,1267 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731004746.7317793</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731004748.4811525</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004746.7317793.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004748.4811525.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.11</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.94</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.170000000000016</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731004766.2280033</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731004766.7322137</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004766.2280033.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004766.7322137.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>128.54</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>128.6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731004767.2499957</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731004769.2978528</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004767.2499957.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004769.2978528.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>128.3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>127.2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.100000000000009</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731004773.0291598</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731004773.7640023</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004773.0291598.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004773.7640023.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>127.84</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731004778.7734149</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731004779.9260118</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004778.7734149.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004779.9260118.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.37</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731004791.6779935</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731004792.5591493</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004791.6779935.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004792.5591493.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6390</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6391</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731004792.9238734</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731004793.5518148</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004792.9238734.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004793.5518148.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6414.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6413.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731004799.5916123</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731004800.045001</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004799.5916123.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004800.045001.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6434.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6418</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>16.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731004811.6559718</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731004812.8668854</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004811.6559718.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004812.8668854.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>493.65</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>493.95</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731004836.7518413</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731004836.8630521</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004836.7518413.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004836.8630521.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>224.35</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>223.83</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731004837.8416579</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731004839.442675</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004837.8416579.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004839.442675.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>224.68</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>224.86</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731004840.1568768</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731004840.970213</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004840.1568768.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004840.970213.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>225.79</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>226.02</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.2300000000000182</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731004842.42569</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731004842.6560736</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004842.42569.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004842.6560736.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>224.81</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>225.09</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731004850.6268265</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731004851.6120117</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004850.6268265.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004851.6120117.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1002</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1003</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731004851.9998806</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731004852.355746</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004851.9998806.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004852.355746.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1005.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1004.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731004868.6459455</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731004868.7057862</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004868.6459455.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004868.7057862.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>11.86</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>11.844</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731004869.001115</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731004869.913771</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004869.001115.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004869.913771.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>11.867</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>11.863</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.004000000000001336</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731004870.9420013</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731004873.5986714</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004870.9420013.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004873.5986714.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>11.871</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>11.902</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.03099999999999881</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731004879.5037384</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731004880.7989478</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004879.5037384.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004880.7989478.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.908</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>11.896</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.01199999999999868</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731004897.142625</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731004897.6585777</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004897.142625.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004897.6585777.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>123.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>123.04</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731004898.549604</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731004899.3605213</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004898.549604.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004899.3605213.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>123.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>123.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1562,1118 +1773,1325 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731004899.7363107</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731004899.8431711</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004899.7363107.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004899.8431711.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>123.42</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>123.24</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731004900.4761186</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731004900.9771802</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004900.4761186.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004900.9771802.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>123.58</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>123.24</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731004901.7247121</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731004903.070303</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004901.7247121.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004903.070303.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>123.58</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>123.78</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731004903.3023708</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731004903.3023708.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731004903.3023708.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>124.16</v>
       </c>
-      <c r="J27" t="n">
-        <v>124.16</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731004904.3575976</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731004906.8200145</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004904.3575976.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004906.8200145.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>159.7</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>158</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.699999999999989</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731004909.2856598</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731004910.158445</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004909.2856598.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004910.158445.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>159.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>159.42</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731004912.1287894</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731004912.2728393</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004912.1287894.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004912.2728393.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>159.7</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>159.22</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731004920.493899</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731004921.2365587</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004920.493899.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004921.2365587.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>159.72</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>159.9</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731004924.028512</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731004924.5103831</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004924.028512.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004924.5103831.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>49.195</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>49.215</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731004924.8699632</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731004926.6583483</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004924.8699632.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004926.6583483.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>49.04</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>48.865</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1749999999999972</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731004934.9822814</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731004935.3662813</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004934.9822814.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004935.3662813.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>48.785</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>48.61</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.1749999999999972</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731004935.9965944</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731004937.0218227</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004935.9965944.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004937.0218227.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>48.855</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>48.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731004938.9756236</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731004939.571001</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004938.9756236.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004939.571001.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>48.995</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>48.925</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731004940.5344512</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731004941.0301254</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004940.5344512.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004941.0301254.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>48.75</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>48.815</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731004948.7382092</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731004949.648772</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004948.7382092.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004949.648772.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1365.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1372</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-6.400000000000091</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731004973.2655475</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731004973.8369904</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004973.2655475.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004973.8369904.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>60.01</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>60.14</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731004981.8097155</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731004981.992949</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004981.8097155.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004981.992949.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>96.15000000000001</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731004986.7536871</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731004988.8630152</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004986.7536871.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004988.8630152.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>95.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>96.73</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.9300000000000068</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731005005.7501395</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731005006.5918875</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005005.7501395.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005006.5918875.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>55.39</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>55.34</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731005006.9808743</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731005007.4087024</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005006.9808743.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005007.4087024.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>55.59</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>55.47</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731005018.540939</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731005020.9824073</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005018.540939.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005020.9824073.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>143.42</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>142.18</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-1.239999999999981</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731005033.7592149</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731005034.050436</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005033.7592149.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005034.050436.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>144.24</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>145.02</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.7800000000000011</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731005041.0819588</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731005042.1231961</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005041.0819588.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005042.1231961.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>19.755</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>19.755</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2681,588 +3099,696 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731005047.8089838</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731005048.3285654</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005047.8089838.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005048.3285654.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>19.844</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>19.771</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.0730000000000004</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731005048.5579796</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731005049.3268943</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005048.5579796.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005049.3268943.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>19.854</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>19.825</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.02899999999999991</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731005050.235061</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731005051.0059364</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005050.235061.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005051.0059364.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>19.889</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>19.873</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01599999999999824</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731005056.4194217</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731005058.0490835</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005056.4194217.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005058.0490835.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>667.75</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>664.1</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-3.649999999999977</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731005071.5084538</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731005071.9402637</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005071.5084538.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005071.9402637.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>667.85</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>669.85</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731005079.7204814</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731005080.429605</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005079.7204814.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005080.429605.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>147.2</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>147.29</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731005080.6520164</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731005080.9172795</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005080.6520164.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005080.9172795.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>148.36</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>147.79</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.5700000000000216</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731005085.9998043</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731005087.2315078</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005085.9998043.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005087.2315078.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>148.68</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>149.83</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-1.150000000000006</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731005095.4245565</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731005095.7317345</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005095.4245565.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005095.7317345.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.09536000000000001</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.0002000000000000057</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731005097.911899</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731005099.8586907</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005097.911899.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005099.8586907.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.09536000000000001</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.09608000000000001</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.0007199999999999984</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731005117.2084188</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731005117.684173</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731005117.2084188.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731005117.684173.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>2892.7</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>2887.15</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>5.549999999999727</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731005117.968385</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731005118.5637913</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731005117.968385.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731005118.5637913.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>2898.2</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>2894.95</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>3.25</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -3276,7 +3802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,6 +3826,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3313,6 +3854,15 @@
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.03500000000000014</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3321,11 +3871,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5799999999999983</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.09999999999999905</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3339,6 +3898,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.02949999999999964</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3352,6 +3920,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.3149999999999977</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3365,6 +3942,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.005749999999999034</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3378,6 +3964,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.09749999999998948</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3391,6 +3986,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.182500000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3404,6 +4008,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.2233333333333292</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3417,6 +4030,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3430,6 +4052,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.0002599999999999963</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3443,6 +4074,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>4.399999999999864</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3456,6 +4096,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.03999999999999998</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3469,6 +4118,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.08500000000000085</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3482,6 +4140,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.8249999999999886</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.2499999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3495,6 +4162,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.2299999999999898</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3508,6 +4184,15 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3521,6 +4206,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3534,6 +4228,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-6.400000000000091</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.47</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3547,6 +4250,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3560,6 +4272,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-1.170000000000016</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.42</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3573,6 +4294,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
